--- a/Planilha do raio-x.xlsx
+++ b/Planilha do raio-x.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\daniel\proj\EXP 2 Organizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC39C74-9149-4FFF-B594-575392A0C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B211736-7FB5-47E4-BA4B-B6521ABEC302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
     <sheet name="Dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Histograma" sheetId="3" r:id="rId3"/>
+    <sheet name="Hist" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Medida em 35Kv</t>
   </si>
@@ -49,12 +51,33 @@
   <si>
     <t>Angulação: 7.6°</t>
   </si>
+  <si>
+    <t>R_0 / 1/s</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Raiz(Média)</t>
+  </si>
+  <si>
+    <t>Ângulo escolhido (°)</t>
+  </si>
+  <si>
+    <t>Tensão (V)</t>
+  </si>
+  <si>
+    <t>Corrente (A)</t>
+  </si>
+  <si>
+    <t>Tempo (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -93,6 +116,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -114,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -174,11 +204,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +356,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9166,7 +9328,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
@@ -46044,4 +46206,2597 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5518698A-7D06-412C-80F6-9C6DBEEC9244}">
+  <dimension ref="A1:J102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>101.4</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1014</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="22">
+        <v>962.77227719999996</v>
+      </c>
+      <c r="E2" s="22">
+        <v>10.34285732</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>101.2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1012</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>99.6</v>
+      </c>
+      <c r="B4" s="22">
+        <v>996</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="24">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>97.1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>971</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="24">
+        <v>35</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>981</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>98.8</v>
+      </c>
+      <c r="B7" s="22">
+        <v>988</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="24">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>107</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1070</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>99.7</v>
+      </c>
+      <c r="B9" s="22">
+        <v>997</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>97</v>
+      </c>
+      <c r="B10" s="22">
+        <v>970</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>100.7</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>96.9</v>
+      </c>
+      <c r="B12" s="22">
+        <v>969</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>100</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>100.4</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1004</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B15" s="22">
+        <v>977</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>91.8</v>
+      </c>
+      <c r="B16" s="22">
+        <v>918</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>95</v>
+      </c>
+      <c r="B17" s="22">
+        <v>950</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>95.6</v>
+      </c>
+      <c r="B18" s="22">
+        <v>956</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>96.7</v>
+      </c>
+      <c r="B19" s="22">
+        <v>967</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>99.5</v>
+      </c>
+      <c r="B20" s="22">
+        <v>995</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B21" s="22">
+        <v>977</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>103.3</v>
+      </c>
+      <c r="B22" s="22">
+        <v>1033</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>98.2</v>
+      </c>
+      <c r="B23" s="22">
+        <v>982</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>102.2</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1022</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>104.8</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1048</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>99.4</v>
+      </c>
+      <c r="B26" s="22">
+        <v>994</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>96.8</v>
+      </c>
+      <c r="B27" s="22">
+        <v>968</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>93.6</v>
+      </c>
+      <c r="B28" s="22">
+        <v>936</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>92.9</v>
+      </c>
+      <c r="B29" s="22">
+        <v>929</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>100</v>
+      </c>
+      <c r="B30" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>96</v>
+      </c>
+      <c r="B31" s="22">
+        <v>960</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>100.2</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1002</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>101.4</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1014</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>96.5</v>
+      </c>
+      <c r="B34" s="22">
+        <v>965</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>96.1</v>
+      </c>
+      <c r="B35" s="22">
+        <v>961</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>100.3</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1003</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>92.5</v>
+      </c>
+      <c r="B37" s="22">
+        <v>925</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>95</v>
+      </c>
+      <c r="B38" s="22">
+        <v>950</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>94.7</v>
+      </c>
+      <c r="B39" s="22">
+        <v>947</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>93.6</v>
+      </c>
+      <c r="B40" s="22">
+        <v>936</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B41" s="22">
+        <v>977</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>88.8</v>
+      </c>
+      <c r="B42" s="22">
+        <v>888</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B43" s="22">
+        <v>977</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <v>94.8</v>
+      </c>
+      <c r="B44" s="22">
+        <v>948</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>94</v>
+      </c>
+      <c r="B45" s="22">
+        <v>940</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
+        <v>93.4</v>
+      </c>
+      <c r="B46" s="22">
+        <v>934</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <v>103.1</v>
+      </c>
+      <c r="B47" s="22">
+        <v>1031</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <v>97.9</v>
+      </c>
+      <c r="B48" s="22">
+        <v>979</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B49" s="22">
+        <v>981</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>94.8</v>
+      </c>
+      <c r="B50" s="22">
+        <v>948</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>93.9</v>
+      </c>
+      <c r="B51" s="22">
+        <v>939</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>98.3</v>
+      </c>
+      <c r="B52" s="22">
+        <v>983</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <v>99</v>
+      </c>
+      <c r="B53" s="22">
+        <v>990</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <v>98.6</v>
+      </c>
+      <c r="B54" s="22">
+        <v>986</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>96.3</v>
+      </c>
+      <c r="B55" s="22">
+        <v>963</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <v>93.4</v>
+      </c>
+      <c r="B56" s="22">
+        <v>934</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <v>95.6</v>
+      </c>
+      <c r="B57" s="22">
+        <v>956</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B58" s="22">
+        <v>981</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>97.6</v>
+      </c>
+      <c r="B59" s="22">
+        <v>976</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
+        <v>95.6</v>
+      </c>
+      <c r="B60" s="22">
+        <v>956</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21">
+        <v>97.5</v>
+      </c>
+      <c r="B61" s="22">
+        <v>975</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B62" s="22">
+        <v>981</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21">
+        <v>99.4</v>
+      </c>
+      <c r="B63" s="22">
+        <v>994</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21">
+        <v>96.5</v>
+      </c>
+      <c r="B64" s="22">
+        <v>965</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21">
+        <v>92.9</v>
+      </c>
+      <c r="B65" s="22">
+        <v>929</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
+        <v>94.6</v>
+      </c>
+      <c r="B66" s="22">
+        <v>946</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
+        <v>89</v>
+      </c>
+      <c r="B67" s="22">
+        <v>890</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
+        <v>94.2</v>
+      </c>
+      <c r="B68" s="22">
+        <v>942</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21">
+        <v>95.9</v>
+      </c>
+      <c r="B69" s="22">
+        <v>959</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21">
+        <v>96.8</v>
+      </c>
+      <c r="B70" s="22">
+        <v>968</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21">
+        <v>93.1</v>
+      </c>
+      <c r="B71" s="22">
+        <v>931</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21">
+        <v>91.2</v>
+      </c>
+      <c r="B72" s="22">
+        <v>912</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21">
+        <v>96.4</v>
+      </c>
+      <c r="B73" s="22">
+        <v>964</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21">
+        <v>87.9</v>
+      </c>
+      <c r="B74" s="22">
+        <v>879</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <v>94.5</v>
+      </c>
+      <c r="B75" s="22">
+        <v>945</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21">
+        <v>96.8</v>
+      </c>
+      <c r="B76" s="22">
+        <v>968</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21">
+        <v>91.5</v>
+      </c>
+      <c r="B77" s="22">
+        <v>915</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21">
+        <v>94.7</v>
+      </c>
+      <c r="B78" s="22">
+        <v>947</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21">
+        <v>95.5</v>
+      </c>
+      <c r="B79" s="22">
+        <v>955</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21">
+        <v>96.7</v>
+      </c>
+      <c r="B80" s="22">
+        <v>967</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21">
+        <v>93.7</v>
+      </c>
+      <c r="B81" s="22">
+        <v>937</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
+        <v>97.2</v>
+      </c>
+      <c r="B82" s="22">
+        <v>972</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="21">
+        <v>97.1</v>
+      </c>
+      <c r="B83" s="22">
+        <v>971</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="21">
+        <v>93.8</v>
+      </c>
+      <c r="B84" s="22">
+        <v>938</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21">
+        <v>97.1</v>
+      </c>
+      <c r="B85" s="22">
+        <v>971</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
+        <v>96.2</v>
+      </c>
+      <c r="B86" s="22">
+        <v>962</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="21">
+        <v>90.6</v>
+      </c>
+      <c r="B87" s="22">
+        <v>906</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
+        <v>95.3</v>
+      </c>
+      <c r="B88" s="22">
+        <v>953</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
+        <v>89.5</v>
+      </c>
+      <c r="B89" s="22">
+        <v>895</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
+        <v>95.8</v>
+      </c>
+      <c r="B90" s="22">
+        <v>958</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <v>96.9</v>
+      </c>
+      <c r="B91" s="22">
+        <v>969</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
+        <v>95.7</v>
+      </c>
+      <c r="B92" s="22">
+        <v>957</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="21">
+        <v>98.4</v>
+      </c>
+      <c r="B93" s="22">
+        <v>984</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21">
+        <v>92.7</v>
+      </c>
+      <c r="B94" s="22">
+        <v>927</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="21">
+        <v>91.8</v>
+      </c>
+      <c r="B95" s="22">
+        <v>918</v>
+      </c>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="21">
+        <v>96.1</v>
+      </c>
+      <c r="B96" s="22">
+        <v>961</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="21">
+        <v>91.5</v>
+      </c>
+      <c r="B97" s="22">
+        <v>915</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="21">
+        <v>92.2</v>
+      </c>
+      <c r="B98" s="22">
+        <v>922</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="21">
+        <v>95</v>
+      </c>
+      <c r="B99" s="22">
+        <v>950</v>
+      </c>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="21">
+        <v>95.3</v>
+      </c>
+      <c r="B100" s="22">
+        <v>953</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="21">
+        <v>91.4</v>
+      </c>
+      <c r="B101" s="22">
+        <v>914</v>
+      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="21">
+        <v>91.4</v>
+      </c>
+      <c r="B102" s="22">
+        <v>914</v>
+      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5528C937-8561-4390-B89A-A270A91FBBBD}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21">
+        <v>101.4</v>
+      </c>
+      <c r="B1" s="22">
+        <v>1014</v>
+      </c>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>101.2</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1012</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>99.6</v>
+      </c>
+      <c r="B3" s="22">
+        <v>996</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>97.1</v>
+      </c>
+      <c r="B4" s="22">
+        <v>971</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>981</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>98.8</v>
+      </c>
+      <c r="B6" s="22">
+        <v>988</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>107</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1070</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>99.7</v>
+      </c>
+      <c r="B8" s="22">
+        <v>997</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>97</v>
+      </c>
+      <c r="B9" s="22">
+        <v>970</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>100.7</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>96.9</v>
+      </c>
+      <c r="B11" s="22">
+        <v>969</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>100</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>100.4</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B14" s="22">
+        <v>977</v>
+      </c>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>91.8</v>
+      </c>
+      <c r="B15" s="22">
+        <v>918</v>
+      </c>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>95</v>
+      </c>
+      <c r="B16" s="22">
+        <v>950</v>
+      </c>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>95.6</v>
+      </c>
+      <c r="B17" s="22">
+        <v>956</v>
+      </c>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>96.7</v>
+      </c>
+      <c r="B18" s="22">
+        <v>967</v>
+      </c>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>99.5</v>
+      </c>
+      <c r="B19" s="22">
+        <v>995</v>
+      </c>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B20" s="22">
+        <v>977</v>
+      </c>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>103.3</v>
+      </c>
+      <c r="B21" s="22">
+        <v>1033</v>
+      </c>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>98.2</v>
+      </c>
+      <c r="B22" s="22">
+        <v>982</v>
+      </c>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>102.2</v>
+      </c>
+      <c r="B23" s="22">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>104.8</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1048</v>
+      </c>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>99.4</v>
+      </c>
+      <c r="B25" s="22">
+        <v>994</v>
+      </c>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>96.8</v>
+      </c>
+      <c r="B26" s="22">
+        <v>968</v>
+      </c>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>93.6</v>
+      </c>
+      <c r="B27" s="22">
+        <v>936</v>
+      </c>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>92.9</v>
+      </c>
+      <c r="B28" s="22">
+        <v>929</v>
+      </c>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>100</v>
+      </c>
+      <c r="B29" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>96</v>
+      </c>
+      <c r="B30" s="22">
+        <v>960</v>
+      </c>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>100.2</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1002</v>
+      </c>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>101.4</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1014</v>
+      </c>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>96.5</v>
+      </c>
+      <c r="B33" s="22">
+        <v>965</v>
+      </c>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>96.1</v>
+      </c>
+      <c r="B34" s="22">
+        <v>961</v>
+      </c>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>100.3</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1003</v>
+      </c>
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>92.5</v>
+      </c>
+      <c r="B36" s="22">
+        <v>925</v>
+      </c>
+      <c r="C36" s="20"/>
+    </row>
+    <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>95</v>
+      </c>
+      <c r="B37" s="22">
+        <v>950</v>
+      </c>
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>94.7</v>
+      </c>
+      <c r="B38" s="22">
+        <v>947</v>
+      </c>
+      <c r="C38" s="20"/>
+    </row>
+    <row r="39" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>93.6</v>
+      </c>
+      <c r="B39" s="22">
+        <v>936</v>
+      </c>
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B40" s="22">
+        <v>977</v>
+      </c>
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>88.8</v>
+      </c>
+      <c r="B41" s="22">
+        <v>888</v>
+      </c>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>97.7</v>
+      </c>
+      <c r="B42" s="22">
+        <v>977</v>
+      </c>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>94.8</v>
+      </c>
+      <c r="B43" s="22">
+        <v>948</v>
+      </c>
+      <c r="C43" s="20"/>
+    </row>
+    <row r="44" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <v>94</v>
+      </c>
+      <c r="B44" s="22">
+        <v>940</v>
+      </c>
+      <c r="C44" s="20"/>
+    </row>
+    <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>93.4</v>
+      </c>
+      <c r="B45" s="22">
+        <v>934</v>
+      </c>
+      <c r="C45" s="20"/>
+    </row>
+    <row r="46" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
+        <v>103.1</v>
+      </c>
+      <c r="B46" s="22">
+        <v>1031</v>
+      </c>
+      <c r="C46" s="20"/>
+    </row>
+    <row r="47" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <v>97.9</v>
+      </c>
+      <c r="B47" s="22">
+        <v>979</v>
+      </c>
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B48" s="22">
+        <v>981</v>
+      </c>
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>94.8</v>
+      </c>
+      <c r="B49" s="22">
+        <v>948</v>
+      </c>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>93.9</v>
+      </c>
+      <c r="B50" s="22">
+        <v>939</v>
+      </c>
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>98.3</v>
+      </c>
+      <c r="B51" s="22">
+        <v>983</v>
+      </c>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>99</v>
+      </c>
+      <c r="B52" s="22">
+        <v>990</v>
+      </c>
+      <c r="C52" s="20"/>
+    </row>
+    <row r="53" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <v>98.6</v>
+      </c>
+      <c r="B53" s="22">
+        <v>986</v>
+      </c>
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <v>96.3</v>
+      </c>
+      <c r="B54" s="22">
+        <v>963</v>
+      </c>
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>93.4</v>
+      </c>
+      <c r="B55" s="22">
+        <v>934</v>
+      </c>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <v>95.6</v>
+      </c>
+      <c r="B56" s="22">
+        <v>956</v>
+      </c>
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B57" s="22">
+        <v>981</v>
+      </c>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <v>97.6</v>
+      </c>
+      <c r="B58" s="22">
+        <v>976</v>
+      </c>
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>95.6</v>
+      </c>
+      <c r="B59" s="22">
+        <v>956</v>
+      </c>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
+        <v>97.5</v>
+      </c>
+      <c r="B60" s="22">
+        <v>975</v>
+      </c>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21">
+        <v>98.1</v>
+      </c>
+      <c r="B61" s="22">
+        <v>981</v>
+      </c>
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
+        <v>99.4</v>
+      </c>
+      <c r="B62" s="22">
+        <v>994</v>
+      </c>
+      <c r="C62" s="20"/>
+    </row>
+    <row r="63" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21">
+        <v>96.5</v>
+      </c>
+      <c r="B63" s="22">
+        <v>965</v>
+      </c>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21">
+        <v>92.9</v>
+      </c>
+      <c r="B64" s="22">
+        <v>929</v>
+      </c>
+      <c r="C64" s="20"/>
+    </row>
+    <row r="65" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21">
+        <v>94.6</v>
+      </c>
+      <c r="B65" s="22">
+        <v>946</v>
+      </c>
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
+        <v>89</v>
+      </c>
+      <c r="B66" s="22">
+        <v>890</v>
+      </c>
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
+        <v>94.2</v>
+      </c>
+      <c r="B67" s="22">
+        <v>942</v>
+      </c>
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
+        <v>95.9</v>
+      </c>
+      <c r="B68" s="22">
+        <v>959</v>
+      </c>
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21">
+        <v>96.8</v>
+      </c>
+      <c r="B69" s="22">
+        <v>968</v>
+      </c>
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21">
+        <v>93.1</v>
+      </c>
+      <c r="B70" s="22">
+        <v>931</v>
+      </c>
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21">
+        <v>91.2</v>
+      </c>
+      <c r="B71" s="22">
+        <v>912</v>
+      </c>
+      <c r="C71" s="20"/>
+    </row>
+    <row r="72" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21">
+        <v>96.4</v>
+      </c>
+      <c r="B72" s="22">
+        <v>964</v>
+      </c>
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21">
+        <v>87.9</v>
+      </c>
+      <c r="B73" s="22">
+        <v>879</v>
+      </c>
+      <c r="C73" s="20"/>
+    </row>
+    <row r="74" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21">
+        <v>94.5</v>
+      </c>
+      <c r="B74" s="22">
+        <v>945</v>
+      </c>
+      <c r="C74" s="20"/>
+    </row>
+    <row r="75" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <v>96.8</v>
+      </c>
+      <c r="B75" s="22">
+        <v>968</v>
+      </c>
+      <c r="C75" s="20"/>
+    </row>
+    <row r="76" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21">
+        <v>91.5</v>
+      </c>
+      <c r="B76" s="22">
+        <v>915</v>
+      </c>
+      <c r="C76" s="20"/>
+    </row>
+    <row r="77" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21">
+        <v>94.7</v>
+      </c>
+      <c r="B77" s="22">
+        <v>947</v>
+      </c>
+      <c r="C77" s="20"/>
+    </row>
+    <row r="78" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21">
+        <v>95.5</v>
+      </c>
+      <c r="B78" s="22">
+        <v>955</v>
+      </c>
+      <c r="C78" s="20"/>
+    </row>
+    <row r="79" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21">
+        <v>96.7</v>
+      </c>
+      <c r="B79" s="22">
+        <v>967</v>
+      </c>
+      <c r="C79" s="20"/>
+    </row>
+    <row r="80" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21">
+        <v>93.7</v>
+      </c>
+      <c r="B80" s="22">
+        <v>937</v>
+      </c>
+      <c r="C80" s="20"/>
+    </row>
+    <row r="81" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21">
+        <v>97.2</v>
+      </c>
+      <c r="B81" s="22">
+        <v>972</v>
+      </c>
+      <c r="C81" s="20"/>
+    </row>
+    <row r="82" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
+        <v>97.1</v>
+      </c>
+      <c r="B82" s="22">
+        <v>971</v>
+      </c>
+      <c r="C82" s="20"/>
+    </row>
+    <row r="83" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="21">
+        <v>93.8</v>
+      </c>
+      <c r="B83" s="22">
+        <v>938</v>
+      </c>
+      <c r="C83" s="20"/>
+    </row>
+    <row r="84" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="21">
+        <v>97.1</v>
+      </c>
+      <c r="B84" s="22">
+        <v>971</v>
+      </c>
+      <c r="C84" s="20"/>
+    </row>
+    <row r="85" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21">
+        <v>96.2</v>
+      </c>
+      <c r="B85" s="22">
+        <v>962</v>
+      </c>
+      <c r="C85" s="20"/>
+    </row>
+    <row r="86" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
+        <v>90.6</v>
+      </c>
+      <c r="B86" s="22">
+        <v>906</v>
+      </c>
+      <c r="C86" s="20"/>
+    </row>
+    <row r="87" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="21">
+        <v>95.3</v>
+      </c>
+      <c r="B87" s="22">
+        <v>953</v>
+      </c>
+      <c r="C87" s="20"/>
+    </row>
+    <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
+        <v>89.5</v>
+      </c>
+      <c r="B88" s="22">
+        <v>895</v>
+      </c>
+      <c r="C88" s="20"/>
+    </row>
+    <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
+        <v>95.8</v>
+      </c>
+      <c r="B89" s="22">
+        <v>958</v>
+      </c>
+      <c r="C89" s="20"/>
+    </row>
+    <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
+        <v>96.9</v>
+      </c>
+      <c r="B90" s="22">
+        <v>969</v>
+      </c>
+      <c r="C90" s="20"/>
+    </row>
+    <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <v>95.7</v>
+      </c>
+      <c r="B91" s="22">
+        <v>957</v>
+      </c>
+      <c r="C91" s="20"/>
+    </row>
+    <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
+        <v>98.4</v>
+      </c>
+      <c r="B92" s="22">
+        <v>984</v>
+      </c>
+      <c r="C92" s="20"/>
+    </row>
+    <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="21">
+        <v>92.7</v>
+      </c>
+      <c r="B93" s="22">
+        <v>927</v>
+      </c>
+      <c r="C93" s="20"/>
+    </row>
+    <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21">
+        <v>91.8</v>
+      </c>
+      <c r="B94" s="22">
+        <v>918</v>
+      </c>
+      <c r="C94" s="20"/>
+    </row>
+    <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="21">
+        <v>96.1</v>
+      </c>
+      <c r="B95" s="22">
+        <v>961</v>
+      </c>
+      <c r="C95" s="20"/>
+    </row>
+    <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="21">
+        <v>91.5</v>
+      </c>
+      <c r="B96" s="22">
+        <v>915</v>
+      </c>
+      <c r="C96" s="20"/>
+    </row>
+    <row r="97" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="21">
+        <v>92.2</v>
+      </c>
+      <c r="B97" s="22">
+        <v>922</v>
+      </c>
+      <c r="C97" s="20"/>
+    </row>
+    <row r="98" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="21">
+        <v>95</v>
+      </c>
+      <c r="B98" s="22">
+        <v>950</v>
+      </c>
+      <c r="C98" s="20"/>
+    </row>
+    <row r="99" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="21">
+        <v>95.3</v>
+      </c>
+      <c r="B99" s="22">
+        <v>953</v>
+      </c>
+      <c r="C99" s="20"/>
+    </row>
+    <row r="100" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="21">
+        <v>91.4</v>
+      </c>
+      <c r="B100" s="22">
+        <v>914</v>
+      </c>
+      <c r="C100" s="20"/>
+    </row>
+    <row r="101" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="21">
+        <v>91.4</v>
+      </c>
+      <c r="B101" s="22">
+        <v>914</v>
+      </c>
+      <c r="C101" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Planilha do raio-x.xlsx
+++ b/Planilha do raio-x.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\daniel\proj\EXP 2 Organizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B211736-7FB5-47E4-BA4B-B6521ABEC302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124F066-1D67-442C-9E54-AC8434C74EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
     <sheet name="Dados" sheetId="2" r:id="rId2"/>
     <sheet name="Histograma" sheetId="3" r:id="rId3"/>
     <sheet name="Hist" sheetId="4" r:id="rId4"/>
+    <sheet name="TMorto" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -313,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,11 +352,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -381,6 +377,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9381,11 +9385,11 @@
         <v>4</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -46219,1658 +46223,1658 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>101.4</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="19">
         <v>1014</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="22">
+      <c r="C2" s="15"/>
+      <c r="D2" s="19">
         <v>962.77227719999996</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>10.34285732</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>101.2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>1012</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>99.6</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>996</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>5</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>97.1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>971</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>35</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>98.1</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>981</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>0.17</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>98.8</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>988</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>107</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>1070</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>99.7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>997</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>97</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>970</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>100.7</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>1007</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>96.9</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>969</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>100</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="19">
         <v>1000</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>100.4</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>1004</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>97.7</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>977</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>91.8</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="19">
         <v>918</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>95</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>950</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>95.6</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>956</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>96.7</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="19">
         <v>967</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>99.5</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>995</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>97.7</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>977</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>103.3</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>1033</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>98.2</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="19">
         <v>982</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>102.2</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="19">
         <v>1022</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>104.8</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="19">
         <v>1048</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>99.4</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="19">
         <v>994</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>96.8</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="19">
         <v>968</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>93.6</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="19">
         <v>936</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>92.9</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="19">
         <v>929</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>100</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="19">
         <v>1000</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>96</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="19">
         <v>960</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>100.2</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="19">
         <v>1002</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>101.4</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="19">
         <v>1014</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>96.5</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="19">
         <v>965</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>96.1</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="19">
         <v>961</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>100.3</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="19">
         <v>1003</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="37" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>92.5</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="19">
         <v>925</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>95</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="19">
         <v>950</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>94.7</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="19">
         <v>947</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>93.6</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="19">
         <v>936</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
     </row>
     <row r="41" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <v>97.7</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="19">
         <v>977</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
     </row>
     <row r="42" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <v>88.8</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="19">
         <v>888</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="A43" s="18">
         <v>97.7</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="19">
         <v>977</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <v>94.8</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="19">
         <v>948</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>94</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="19">
         <v>940</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+      <c r="A46" s="18">
         <v>93.4</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="19">
         <v>934</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
     </row>
     <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+      <c r="A47" s="18">
         <v>103.1</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="19">
         <v>1031</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>97.9</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="19">
         <v>979</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
     </row>
     <row r="49" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <v>98.1</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="19">
         <v>981</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
     </row>
     <row r="50" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+      <c r="A50" s="18">
         <v>94.8</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="19">
         <v>948</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
     </row>
     <row r="51" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+      <c r="A51" s="18">
         <v>93.9</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="19">
         <v>939</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
     </row>
     <row r="52" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
+      <c r="A52" s="18">
         <v>98.3</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="19">
         <v>983</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
     </row>
     <row r="53" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
+      <c r="A53" s="18">
         <v>99</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="19">
         <v>990</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
     </row>
     <row r="54" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+      <c r="A54" s="18">
         <v>98.6</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="19">
         <v>986</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
     </row>
     <row r="55" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21">
+      <c r="A55" s="18">
         <v>96.3</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="19">
         <v>963</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
     </row>
     <row r="56" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="A56" s="18">
         <v>93.4</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="19">
         <v>934</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
     </row>
     <row r="57" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
+      <c r="A57" s="18">
         <v>95.6</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="19">
         <v>956</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
     </row>
     <row r="58" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+      <c r="A58" s="18">
         <v>98.1</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="19">
         <v>981</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
     </row>
     <row r="59" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21">
+      <c r="A59" s="18">
         <v>97.6</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="19">
         <v>976</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
     </row>
     <row r="60" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21">
+      <c r="A60" s="18">
         <v>95.6</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="19">
         <v>956</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
     </row>
     <row r="61" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21">
+      <c r="A61" s="18">
         <v>97.5</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="19">
         <v>975</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
     </row>
     <row r="62" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+      <c r="A62" s="18">
         <v>98.1</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="19">
         <v>981</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
     </row>
     <row r="63" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21">
+      <c r="A63" s="18">
         <v>99.4</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="19">
         <v>994</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
     </row>
     <row r="64" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21">
+      <c r="A64" s="18">
         <v>96.5</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="19">
         <v>965</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
     </row>
     <row r="65" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21">
+      <c r="A65" s="18">
         <v>92.9</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="19">
         <v>929</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
     </row>
     <row r="66" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="A66" s="18">
         <v>94.6</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="19">
         <v>946</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
     </row>
     <row r="67" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21">
+      <c r="A67" s="18">
         <v>89</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="19">
         <v>890</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
     </row>
     <row r="68" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21">
+      <c r="A68" s="18">
         <v>94.2</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="19">
         <v>942</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
     </row>
     <row r="69" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+      <c r="A69" s="18">
         <v>95.9</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="19">
         <v>959</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
     </row>
     <row r="70" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21">
+      <c r="A70" s="18">
         <v>96.8</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="19">
         <v>968</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
     </row>
     <row r="71" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+      <c r="A71" s="18">
         <v>93.1</v>
       </c>
-      <c r="B71" s="22">
+      <c r="B71" s="19">
         <v>931</v>
       </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
     </row>
     <row r="72" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21">
+      <c r="A72" s="18">
         <v>91.2</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="19">
         <v>912</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
     </row>
     <row r="73" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
+      <c r="A73" s="18">
         <v>96.4</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B73" s="19">
         <v>964</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
     </row>
     <row r="74" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21">
+      <c r="A74" s="18">
         <v>87.9</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="19">
         <v>879</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
     </row>
     <row r="75" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21">
+      <c r="A75" s="18">
         <v>94.5</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="19">
         <v>945</v>
       </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
     </row>
     <row r="76" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21">
+      <c r="A76" s="18">
         <v>96.8</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76" s="19">
         <v>968</v>
       </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
     </row>
     <row r="77" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21">
+      <c r="A77" s="18">
         <v>91.5</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="19">
         <v>915</v>
       </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
     </row>
     <row r="78" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
+      <c r="A78" s="18">
         <v>94.7</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="19">
         <v>947</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
     </row>
     <row r="79" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21">
+      <c r="A79" s="18">
         <v>95.5</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="19">
         <v>955</v>
       </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
     </row>
     <row r="80" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21">
+      <c r="A80" s="18">
         <v>96.7</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="19">
         <v>967</v>
       </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
     </row>
     <row r="81" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21">
+      <c r="A81" s="18">
         <v>93.7</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="19">
         <v>937</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
     </row>
     <row r="82" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21">
+      <c r="A82" s="18">
         <v>97.2</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="19">
         <v>972</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
     </row>
     <row r="83" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21">
+      <c r="A83" s="18">
         <v>97.1</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="19">
         <v>971</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
     </row>
     <row r="84" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21">
+      <c r="A84" s="18">
         <v>93.8</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B84" s="19">
         <v>938</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
     </row>
     <row r="85" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21">
+      <c r="A85" s="18">
         <v>97.1</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="19">
         <v>971</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
     </row>
     <row r="86" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21">
+      <c r="A86" s="18">
         <v>96.2</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="19">
         <v>962</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
     </row>
     <row r="87" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="21">
+      <c r="A87" s="18">
         <v>90.6</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="19">
         <v>906</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
     </row>
     <row r="88" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21">
+      <c r="A88" s="18">
         <v>95.3</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="19">
         <v>953</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
     </row>
     <row r="89" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="21">
+      <c r="A89" s="18">
         <v>89.5</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="19">
         <v>895</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
     </row>
     <row r="90" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21">
+      <c r="A90" s="18">
         <v>95.8</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="19">
         <v>958</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
     </row>
     <row r="91" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21">
+      <c r="A91" s="18">
         <v>96.9</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="19">
         <v>969</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
     </row>
     <row r="92" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21">
+      <c r="A92" s="18">
         <v>95.7</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="19">
         <v>957</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
     </row>
     <row r="93" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21">
+      <c r="A93" s="18">
         <v>98.4</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="19">
         <v>984</v>
       </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
     </row>
     <row r="94" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21">
+      <c r="A94" s="18">
         <v>92.7</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B94" s="19">
         <v>927</v>
       </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
     </row>
     <row r="95" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21">
+      <c r="A95" s="18">
         <v>91.8</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95" s="19">
         <v>918</v>
       </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
     </row>
     <row r="96" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21">
+      <c r="A96" s="18">
         <v>96.1</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B96" s="19">
         <v>961</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
     </row>
     <row r="97" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="21">
+      <c r="A97" s="18">
         <v>91.5</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B97" s="19">
         <v>915</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
     </row>
     <row r="98" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21">
+      <c r="A98" s="18">
         <v>92.2</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B98" s="19">
         <v>922</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
     </row>
     <row r="99" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="21">
+      <c r="A99" s="18">
         <v>95</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B99" s="19">
         <v>950</v>
       </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
     </row>
     <row r="100" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="21">
+      <c r="A100" s="18">
         <v>95.3</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="19">
         <v>953</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
     </row>
     <row r="101" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="21">
+      <c r="A101" s="18">
         <v>91.4</v>
       </c>
-      <c r="B101" s="22">
+      <c r="B101" s="19">
         <v>914</v>
       </c>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
     </row>
     <row r="102" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21">
+      <c r="A102" s="18">
         <v>91.4</v>
       </c>
-      <c r="B102" s="22">
+      <c r="B102" s="19">
         <v>914</v>
       </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47881,920 +47885,1039 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5528C937-8561-4390-B89A-A270A91FBBBD}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21">
+      <c r="A1" s="18">
         <v>101.4</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="19">
         <v>1014</v>
       </c>
-      <c r="C1" s="18"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>101.2</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="19">
         <v>1012</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>99.6</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>996</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>97.1</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>971</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>98.1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>981</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>98.8</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>988</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>107</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>1070</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>99.7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>997</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>97</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>970</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>100.7</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>1007</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>96.9</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>969</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>100</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>1000</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>100.4</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="19">
         <v>1004</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>97.7</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>977</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>91.8</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>918</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>95</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="19">
         <v>950</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>95.6</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>956</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>96.7</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>967</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>99.5</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="19">
         <v>995</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>97.7</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>977</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>103.3</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>1033</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>98.2</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>982</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>102.2</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="19">
         <v>1022</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>104.8</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="19">
         <v>1048</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>99.4</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="19">
         <v>994</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>96.8</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="19">
         <v>968</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>93.6</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="19">
         <v>936</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>92.9</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="19">
         <v>929</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>100</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="19">
         <v>1000</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>96</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="19">
         <v>960</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>100.2</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="19">
         <v>1002</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>101.4</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="19">
         <v>1014</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>96.5</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="19">
         <v>965</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>96.1</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="19">
         <v>961</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>100.3</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="19">
         <v>1003</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>92.5</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="19">
         <v>925</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>95</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="19">
         <v>950</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>94.7</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="19">
         <v>947</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>93.6</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="19">
         <v>936</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>97.7</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="19">
         <v>977</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <v>88.8</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="19">
         <v>888</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <v>97.7</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="19">
         <v>977</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="A43" s="18">
         <v>94.8</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="19">
         <v>948</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <v>94</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="19">
         <v>940</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>93.4</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="19">
         <v>934</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+      <c r="A46" s="18">
         <v>103.1</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="19">
         <v>1031</v>
       </c>
-      <c r="C46" s="20"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+      <c r="A47" s="18">
         <v>97.9</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="19">
         <v>979</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>98.1</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="19">
         <v>981</v>
       </c>
-      <c r="C48" s="20"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <v>94.8</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="19">
         <v>948</v>
       </c>
-      <c r="C49" s="20"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+      <c r="A50" s="18">
         <v>93.9</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="19">
         <v>939</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+      <c r="A51" s="18">
         <v>98.3</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="19">
         <v>983</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
+      <c r="A52" s="18">
         <v>99</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="19">
         <v>990</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="53" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
+      <c r="A53" s="18">
         <v>98.6</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="19">
         <v>986</v>
       </c>
-      <c r="C53" s="20"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+      <c r="A54" s="18">
         <v>96.3</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="19">
         <v>963</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21">
+      <c r="A55" s="18">
         <v>93.4</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="19">
         <v>934</v>
       </c>
-      <c r="C55" s="20"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="56" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="A56" s="18">
         <v>95.6</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="19">
         <v>956</v>
       </c>
-      <c r="C56" s="20"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
+      <c r="A57" s="18">
         <v>98.1</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="19">
         <v>981</v>
       </c>
-      <c r="C57" s="20"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+      <c r="A58" s="18">
         <v>97.6</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="19">
         <v>976</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21">
+      <c r="A59" s="18">
         <v>95.6</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="19">
         <v>956</v>
       </c>
-      <c r="C59" s="20"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21">
+      <c r="A60" s="18">
         <v>97.5</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="19">
         <v>975</v>
       </c>
-      <c r="C60" s="20"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21">
+      <c r="A61" s="18">
         <v>98.1</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="19">
         <v>981</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+      <c r="A62" s="18">
         <v>99.4</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="19">
         <v>994</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21">
+      <c r="A63" s="18">
         <v>96.5</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="19">
         <v>965</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21">
+      <c r="A64" s="18">
         <v>92.9</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="19">
         <v>929</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21">
+      <c r="A65" s="18">
         <v>94.6</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="19">
         <v>946</v>
       </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="A66" s="18">
         <v>89</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="19">
         <v>890</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21">
+      <c r="A67" s="18">
         <v>94.2</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="19">
         <v>942</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21">
+      <c r="A68" s="18">
         <v>95.9</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="19">
         <v>959</v>
       </c>
-      <c r="C68" s="20"/>
+      <c r="C68" s="17"/>
     </row>
     <row r="69" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+      <c r="A69" s="18">
         <v>96.8</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="19">
         <v>968</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="70" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21">
+      <c r="A70" s="18">
         <v>93.1</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="19">
         <v>931</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+      <c r="A71" s="18">
         <v>91.2</v>
       </c>
-      <c r="B71" s="22">
+      <c r="B71" s="19">
         <v>912</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="17"/>
     </row>
     <row r="72" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21">
+      <c r="A72" s="18">
         <v>96.4</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="19">
         <v>964</v>
       </c>
-      <c r="C72" s="20"/>
+      <c r="C72" s="17"/>
     </row>
     <row r="73" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
+      <c r="A73" s="18">
         <v>87.9</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B73" s="19">
         <v>879</v>
       </c>
-      <c r="C73" s="20"/>
+      <c r="C73" s="17"/>
     </row>
     <row r="74" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21">
+      <c r="A74" s="18">
         <v>94.5</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="19">
         <v>945</v>
       </c>
-      <c r="C74" s="20"/>
+      <c r="C74" s="17"/>
     </row>
     <row r="75" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21">
+      <c r="A75" s="18">
         <v>96.8</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="19">
         <v>968</v>
       </c>
-      <c r="C75" s="20"/>
+      <c r="C75" s="17"/>
     </row>
     <row r="76" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21">
+      <c r="A76" s="18">
         <v>91.5</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76" s="19">
         <v>915</v>
       </c>
-      <c r="C76" s="20"/>
+      <c r="C76" s="17"/>
     </row>
     <row r="77" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21">
+      <c r="A77" s="18">
         <v>94.7</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="19">
         <v>947</v>
       </c>
-      <c r="C77" s="20"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="78" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
+      <c r="A78" s="18">
         <v>95.5</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="19">
         <v>955</v>
       </c>
-      <c r="C78" s="20"/>
+      <c r="C78" s="17"/>
     </row>
     <row r="79" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21">
+      <c r="A79" s="18">
         <v>96.7</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="19">
         <v>967</v>
       </c>
-      <c r="C79" s="20"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21">
+      <c r="A80" s="18">
         <v>93.7</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="19">
         <v>937</v>
       </c>
-      <c r="C80" s="20"/>
+      <c r="C80" s="17"/>
     </row>
     <row r="81" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21">
+      <c r="A81" s="18">
         <v>97.2</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="19">
         <v>972</v>
       </c>
-      <c r="C81" s="20"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21">
+      <c r="A82" s="18">
         <v>97.1</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="19">
         <v>971</v>
       </c>
-      <c r="C82" s="20"/>
+      <c r="C82" s="17"/>
     </row>
     <row r="83" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21">
+      <c r="A83" s="18">
         <v>93.8</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="19">
         <v>938</v>
       </c>
-      <c r="C83" s="20"/>
+      <c r="C83" s="17"/>
     </row>
     <row r="84" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21">
+      <c r="A84" s="18">
         <v>97.1</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B84" s="19">
         <v>971</v>
       </c>
-      <c r="C84" s="20"/>
+      <c r="C84" s="17"/>
     </row>
     <row r="85" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21">
+      <c r="A85" s="18">
         <v>96.2</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="19">
         <v>962</v>
       </c>
-      <c r="C85" s="20"/>
+      <c r="C85" s="17"/>
     </row>
     <row r="86" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21">
+      <c r="A86" s="18">
         <v>90.6</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="19">
         <v>906</v>
       </c>
-      <c r="C86" s="20"/>
+      <c r="C86" s="17"/>
     </row>
     <row r="87" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="21">
+      <c r="A87" s="18">
         <v>95.3</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="19">
         <v>953</v>
       </c>
-      <c r="C87" s="20"/>
+      <c r="C87" s="17"/>
     </row>
     <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21">
+      <c r="A88" s="18">
         <v>89.5</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="19">
         <v>895</v>
       </c>
-      <c r="C88" s="20"/>
+      <c r="C88" s="17"/>
     </row>
     <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="21">
+      <c r="A89" s="18">
         <v>95.8</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="19">
         <v>958</v>
       </c>
-      <c r="C89" s="20"/>
+      <c r="C89" s="17"/>
     </row>
     <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21">
+      <c r="A90" s="18">
         <v>96.9</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="19">
         <v>969</v>
       </c>
-      <c r="C90" s="20"/>
+      <c r="C90" s="17"/>
     </row>
     <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21">
+      <c r="A91" s="18">
         <v>95.7</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="19">
         <v>957</v>
       </c>
-      <c r="C91" s="20"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21">
+      <c r="A92" s="18">
         <v>98.4</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="19">
         <v>984</v>
       </c>
-      <c r="C92" s="20"/>
+      <c r="C92" s="17"/>
     </row>
     <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21">
+      <c r="A93" s="18">
         <v>92.7</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="19">
         <v>927</v>
       </c>
-      <c r="C93" s="20"/>
+      <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21">
+      <c r="A94" s="18">
         <v>91.8</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B94" s="19">
         <v>918</v>
       </c>
-      <c r="C94" s="20"/>
+      <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21">
+      <c r="A95" s="18">
         <v>96.1</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95" s="19">
         <v>961</v>
       </c>
-      <c r="C95" s="20"/>
+      <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21">
+      <c r="A96" s="18">
         <v>91.5</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B96" s="19">
         <v>915</v>
       </c>
-      <c r="C96" s="20"/>
+      <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="21">
+      <c r="A97" s="18">
         <v>92.2</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B97" s="19">
         <v>922</v>
       </c>
-      <c r="C97" s="20"/>
+      <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21">
+      <c r="A98" s="18">
         <v>95</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B98" s="19">
         <v>950</v>
       </c>
-      <c r="C98" s="20"/>
+      <c r="C98" s="17"/>
     </row>
     <row r="99" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="21">
+      <c r="A99" s="18">
         <v>95.3</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B99" s="19">
         <v>953</v>
       </c>
-      <c r="C99" s="20"/>
+      <c r="C99" s="17"/>
     </row>
     <row r="100" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="21">
+      <c r="A100" s="18">
         <v>91.4</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="19">
         <v>914</v>
       </c>
-      <c r="C100" s="20"/>
+      <c r="C100" s="17"/>
     </row>
     <row r="101" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="21">
+      <c r="A101" s="18">
         <v>91.4</v>
       </c>
-      <c r="B101" s="22">
+      <c r="B101" s="19">
         <v>914</v>
       </c>
-      <c r="C101" s="20"/>
+      <c r="C101" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F04BE6-5D95-4295-894D-ADA7BA969959}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="B1" s="25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="B3" s="25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="B7" s="25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="25">
+        <v>2163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
